--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H2">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q2">
-        <v>2.282968519919999</v>
+        <v>0.61848152278</v>
       </c>
       <c r="R2">
-        <v>20.54671667928</v>
+        <v>5.566333705020001</v>
       </c>
       <c r="S2">
-        <v>0.09310151240983511</v>
+        <v>0.02193272674182745</v>
       </c>
       <c r="T2">
-        <v>0.09310151240983511</v>
+        <v>0.02193272674182745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H3">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N3">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q3">
-        <v>0.8722050455999999</v>
+        <v>0.1164034506771111</v>
       </c>
       <c r="R3">
-        <v>7.8498454104</v>
+        <v>1.047631056094</v>
       </c>
       <c r="S3">
-        <v>0.03556930731558872</v>
+        <v>0.004127924572477505</v>
       </c>
       <c r="T3">
-        <v>0.03556930731558872</v>
+        <v>0.004127924572477505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>18.876939</v>
       </c>
       <c r="I4">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J4">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>4.73814</v>
       </c>
       <c r="O4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q4">
         <v>9.937953305939999</v>
@@ -694,10 +694,10 @@
         <v>89.44157975345999</v>
       </c>
       <c r="S4">
-        <v>0.4052786864856801</v>
+        <v>0.3524218690519482</v>
       </c>
       <c r="T4">
-        <v>0.4052786864856801</v>
+        <v>0.3524218690519482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>18.876939</v>
       </c>
       <c r="I5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N5">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q5">
-        <v>3.796781664200001</v>
+        <v>1.870406818751333</v>
       </c>
       <c r="R5">
-        <v>34.1710349778</v>
+        <v>16.833661368762</v>
       </c>
       <c r="S5">
-        <v>0.1548361758572727</v>
+        <v>0.06632877481501756</v>
       </c>
       <c r="T5">
-        <v>0.1548361758572727</v>
+        <v>0.06632877481501756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H6">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I6">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J6">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.73814</v>
       </c>
       <c r="O6">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P6">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q6">
-        <v>5.52178413336</v>
+        <v>13.17595448576</v>
       </c>
       <c r="R6">
-        <v>49.69605720024</v>
+        <v>118.58359037184</v>
       </c>
       <c r="S6">
-        <v>0.225183330182083</v>
+        <v>0.4672485735709268</v>
       </c>
       <c r="T6">
-        <v>0.225183330182083</v>
+        <v>0.4672485735709268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H7">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I7">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J7">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N7">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O7">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P7">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q7">
-        <v>2.1095901848</v>
+        <v>2.479826011960889</v>
       </c>
       <c r="R7">
-        <v>18.9863116632</v>
+        <v>22.318434107648</v>
       </c>
       <c r="S7">
-        <v>0.08603098774954028</v>
+        <v>0.08794013124780242</v>
       </c>
       <c r="T7">
-        <v>0.08603098774954027</v>
+        <v>0.08794013124780242</v>
       </c>
     </row>
   </sheetData>
